--- a/app/tmp/excels/goods_mst_template.xlsx
+++ b/app/tmp/excels/goods_mst_template.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="525" windowWidth="20175" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9585"/>
   </bookViews>
   <sheets>
-    <sheet name="商品マスタ" sheetId="2" r:id="rId1"/>
+    <sheet name="商品マスタ" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">商品マスタ!$A$1:$AH$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">商品マスタ!$B$1:$AK$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">商品マスタ!$B$1:$AL$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -22,7 +23,7 @@
     <author>Work</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -37,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,32 +51,6 @@
           </rPr>
           <t>新規商品の場合は商品区分マスタ画面の
 商品区分IDを設定</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>原価(Net) x (1+Tax)</t>
         </r>
         <r>
           <rPr>
@@ -94,14 +69,25 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>商品マスタの原価に反映
-NetTax x (1+Service Rate)</t>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>(原価(Net) x (1+Tax)) x (1+ServiceRate)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -120,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -266,84 +252,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>商品コード</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>利益</t>
-  </si>
-  <si>
-    <t>利益率</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>商品区分ID</t>
-  </si>
-  <si>
-    <t>ベンダーID</t>
-  </si>
-  <si>
-    <t>原価1</t>
-  </si>
-  <si>
-    <t>原価2</t>
-  </si>
-  <si>
-    <t>原価3</t>
-  </si>
-  <si>
-    <t>原価4</t>
-  </si>
-  <si>
-    <t>原価5</t>
-  </si>
-  <si>
-    <t>原価6</t>
-  </si>
-  <si>
-    <t>原価7</t>
-  </si>
-  <si>
-    <t>原価8</t>
-  </si>
-  <si>
-    <t>原価9</t>
-  </si>
-  <si>
-    <t>原価10</t>
-  </si>
-  <si>
-    <t>Net Tax</t>
-  </si>
-  <si>
-    <t>サービスチャージ</t>
-  </si>
-  <si>
-    <t>Gross</t>
-  </si>
-  <si>
-    <t>国内払い</t>
-  </si>
-  <si>
-    <t>支払区分</t>
-  </si>
-  <si>
-    <t>通貨区分</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
-    <t>削除区分</t>
   </si>
   <si>
     <r>
@@ -359,43 +273,24 @@
       </rPr>
       <t>D</t>
     </r>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>商品分類名</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンブンルイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>商品区分ID</t>
   </si>
   <si>
     <t>商品区分名</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ベンダーID</t>
   </si>
   <si>
     <t>ベンダー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>商品名</t>
   </si>
   <si>
     <r>
@@ -411,7 +306,6 @@
       </rPr>
       <t>ax</t>
     </r>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -427,7 +321,6 @@
       </rPr>
       <t>erviceRate</t>
     </r>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -443,7 +336,51 @@
       </rPr>
       <t>rofitRate</t>
     </r>
-    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>原価1</t>
+  </si>
+  <si>
+    <t>原価2</t>
+  </si>
+  <si>
+    <t>原価3</t>
+  </si>
+  <si>
+    <t>原価4</t>
+  </si>
+  <si>
+    <t>原価5</t>
+  </si>
+  <si>
+    <t>原価6</t>
+  </si>
+  <si>
+    <t>原価7</t>
+  </si>
+  <si>
+    <t>原価8</t>
+  </si>
+  <si>
+    <t>原価9</t>
+  </si>
+  <si>
+    <t>原価10</t>
+  </si>
+  <si>
+    <t>国内払い</t>
+  </si>
+  <si>
+    <t>支払区分</t>
+  </si>
+  <si>
+    <t>通貨区分</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>RW</t>
   </si>
   <si>
     <r>
@@ -459,22 +396,123 @@
       </rPr>
       <t>evision</t>
     </r>
-    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除区分</t>
+  </si>
+  <si>
+    <t>仕入価格(円）</t>
+    <rPh sb="0" eb="2">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>販売価格（ドル）</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>仕入為替</t>
+    <rPh sb="0" eb="2">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カワセ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>販売為替</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カワセ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>販売価格(円）</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>対売価利益率</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>バイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>変更対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>税サービス込仕入価格</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.000%"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -499,7 +537,27 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -537,18 +595,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
+    <xf numFmtId="6" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -559,66 +645,57 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="パーセント" xfId="2" builtinId="5"/>
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+    <cellStyle name="通貨 2" xfId="4"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFDE9D9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -910,150 +987,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK15" sqref="AK15"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="18" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="22" width="9" style="7" customWidth="1"/>
-    <col min="23" max="23" width="10.625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="17" style="6" customWidth="1"/>
-    <col min="25" max="25" width="10.375" style="7" customWidth="1"/>
-    <col min="26" max="26" width="9.625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="9.25" style="6" customWidth="1"/>
-    <col min="28" max="28" width="9.25" style="2" customWidth="1"/>
-    <col min="29" max="29" width="9.625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="9" style="2" customWidth="1"/>
-    <col min="31" max="32" width="9" style="11" customWidth="1"/>
-    <col min="33" max="33" width="9" style="22" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:38">
+      <c r="A1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="AK1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="AL1" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="17"/>
+      <c r="AL2" s="12"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:AH1"/>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="40" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/app/tmp/excels/goods_mst_template.xlsx
+++ b/app/tmp/excels/goods_mst_template.xlsx
@@ -20,10 +20,26 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>yohtakano</author>
     <author>Work</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">1をセットすると処理対象（新規、更新、削除）になる
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -38,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -65,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="X1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -91,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Y1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -106,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AA1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -121,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AD1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -136,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AE1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -163,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AF1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -193,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AG1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -220,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AK1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -252,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -401,29 +417,6 @@
     <t>削除区分</t>
   </si>
   <si>
-    <t>仕入価格(円）</t>
-    <rPh sb="0" eb="2">
-      <t>シイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>販売価格（ドル）</t>
-    <rPh sb="0" eb="2">
-      <t>ハンバイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カカク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>仕入為替</t>
     <rPh sb="0" eb="2">
       <t>シイ</t>
@@ -444,19 +437,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>販売価格(円）</t>
-    <rPh sb="0" eb="2">
-      <t>ハンバイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>対売価利益率</t>
     <rPh sb="0" eb="1">
       <t>タイ</t>
@@ -477,17 +457,37 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>変更対象</t>
+    <t>税サービス込仕入価格</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>販売価格</t>
     <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>仕入価格</t>
+    <rPh sb="0" eb="2">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>処理対象</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>税サービス込仕入価格</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -495,12 +495,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.000%"/>
+    <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -562,6 +563,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -608,7 +616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -648,32 +656,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -993,9 +1007,9 @@
   </sheetPr>
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1019,10 +1033,10 @@
     <col min="24" max="24" width="21.75" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.25" style="23" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9.25" style="11" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="9.375" style="11" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="4.625" style="4" bestFit="1" customWidth="1"/>
@@ -1033,7 +1047,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -1102,26 +1116,26 @@
       <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="19" t="s">
+      <c r="X1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AC1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="AE1" s="10" t="s">
         <v>22</v>
@@ -1138,22 +1152,22 @@
       <c r="AI1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AJ1" s="18" t="s">
         <v>27</v>
       </c>
       <c r="AK1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="18" t="s">
-        <v>35</v>
+      <c r="AL1" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:38">
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="17"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="20"/>
       <c r="AL2" s="12"/>
     </row>
   </sheetData>

--- a/app/tmp/excels/goods_mst_template.xlsx
+++ b/app/tmp/excels/goods_mst_template.xlsx
@@ -10,8 +10,8 @@
     <sheet name="商品マスタ" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">商品マスタ!$B$1:$AK$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">商品マスタ!$B$1:$AL$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">商品マスタ!$B$1:$AJ$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">商品マスタ!$B$1:$AK$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -28,33 +28,44 @@
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">1をセットすると処理対象（新規、更新、削除）になる
+          <t>1をセットすると処理対象（新規、更新、削除）になる</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">空の場合は新規商品として登録される
-</t>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>新規商品時は空にする</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="E1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -67,6 +78,32 @@
           </rPr>
           <t>新規商品の場合は商品区分マスタ画面の
 商品区分IDを設定</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>((原価1～原価10) x (1+Tax)) x (1+ServiceRate)</t>
         </r>
         <r>
           <rPr>
@@ -92,7 +129,22 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>(原価(Net) x (1+Tax)) x (1+ServiceRate)</t>
+          <t>税込サービス込仕入価格 x (1+Profit Rate)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>税サービス込仕入価格 x 仕入為替</t>
         </r>
         <r>
           <rPr>
@@ -107,33 +159,44 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="1">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>サービスチャージ x (1+Profit Rate)</t>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>販売価格 x 販売為替</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="1">
+    <comment ref="AC1" authorId="1">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">商品マスタの価格に反映
-</t>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>(販売価格-仕入価格) / 販売価格</t>
         </r>
       </text>
     </comment>
@@ -148,38 +211,23 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>Gross - サービスチャージ</t>
+          <t>0：海外
+1：国内</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
     <comment ref="AE1" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>0：海外
-1：国内</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -209,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="1">
+    <comment ref="AF1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -236,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="1">
+    <comment ref="AJ1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -268,10 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>商品コード</t>
   </si>
@@ -501,7 +546,7 @@
     <numFmt numFmtId="177" formatCode="0.000%"/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -570,6 +615,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -616,7 +669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -688,6 +741,9 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1005,85 +1061,84 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9" style="11"/>
+    <col min="2" max="2" width="10.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:37">
       <c r="A1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -1113,29 +1168,29 @@
       <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>21</v>
+      <c r="W1" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="X1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD1" s="19" t="s">
-        <v>31</v>
+      <c r="AD1" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="AE1" s="10" t="s">
         <v>22</v>
@@ -1143,32 +1198,29 @@
       <c r="AF1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="5" t="s">
         <v>24</v>
       </c>
       <c r="AH1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="18" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" s="15" t="s">
-        <v>32</v>
+      <c r="AK1" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="20"/>
-      <c r="AL2" s="12"/>
+    <row r="2" spans="1:37">
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="20"/>
+      <c r="AK2" s="12"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/app/tmp/excels/goods_mst_template.xlsx
+++ b/app/tmp/excels/goods_mst_template.xlsx
@@ -129,7 +129,15 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>税込サービス込仕入価格 x (1+Profit Rate)</t>
+          <t xml:space="preserve">税込サービス込仕入価格 x (1+Profit Rate)
+仕上がり         アクション                   計算値
+585,000     千円未満切り上げ           584,122
+85,000      千円未満切り上げ             84,322
+8,500        百円未満切り上げ              8,432
+850          １０円未満切り上げ               843
+85            小数点以下切り上げ              84.12
+9             小数点以下切り上げ                8.4
+</t>
         </r>
       </text>
     </comment>
@@ -1063,9 +1071,9 @@
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/app/tmp/excels/goods_mst_template.xlsx
+++ b/app/tmp/excels/goods_mst_template.xlsx
@@ -130,13 +130,15 @@
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">税込サービス込仕入価格 x (1+Profit Rate)
-仕上がり         アクション                   計算値
-585,000     千円未満切り上げ           584,122
-85,000      千円未満切り上げ             84,322
-8,500        百円未満切り上げ              8,432
-850          １０円未満切り上げ               843
-85            小数点以下切り上げ              84.12
-9             小数点以下切り上げ                8.4
+万単位以上は百の位で切り上げ
+     84,322 → 85,000
+千単位は十の位で切り上げ
+      8,432 → 8,500
+百単位以下
+   300以上は一の位で切り上げ
+      301 → 310
+   300以下は小数点第一位で切り上げ
+       299.10 → 300
 </t>
         </r>
       </text>
@@ -1073,7 +1075,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC12" sqref="AC12"/>
+      <selection pane="bottomLeft" activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
